--- a/Информация о проходах/Резников Лев Георгиевич.xlsx
+++ b/Информация о проходах/Резников Лев Георгиевич.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,17 +439,17 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-06-03 10:36:50</t>
+          <t>2024-05-23 11:23:06</t>
         </is>
       </c>
     </row>
@@ -471,17 +471,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-06-03 10:55:48</t>
+          <t>2024-05-23 11:23:11</t>
         </is>
       </c>
     </row>
@@ -503,15 +503,335 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-05-23 11:23:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Резников Лев Георгиевич</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Административный директор</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-05-23 11:23:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Резников Лев Георгиевич</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Административный директор</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-05-27 14:33:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Резников Лев Георгиевич</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Административный директор</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-05-27 15:18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Резников Лев Георгиевич</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Административный директор</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-05-30 09:58:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Резников Лев Георгиевич</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Административный директор</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-05-30 10:01:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Резников Лев Георгиевич</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Административный директор</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-05-30 10:41:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Резников Лев Георгиевич</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Административный директор</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-05-30 11:47:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Резников Лев Георгиевич</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Административный директор</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-06-03 10:36:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Резников Лев Георгиевич</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Административный директор</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-06-03 10:55:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Резников Лев Георгиевич</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Административный директор</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>2024-06-03 12:04:42</t>
         </is>

--- a/Информация о проходах/Резников Лев Георгиевич.xlsx
+++ b/Информация о проходах/Резников Лев Георгиевич.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,17 +439,17 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-05-23 11:23:06</t>
+          <t>2024-06-03 10:36:50</t>
         </is>
       </c>
     </row>
@@ -471,17 +471,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-05-23 11:23:11</t>
+          <t>2024-06-03 10:55:48</t>
         </is>
       </c>
     </row>
@@ -503,17 +503,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-05-23 11:23:16</t>
+          <t>2024-06-03 12:04:42</t>
         </is>
       </c>
     </row>
@@ -535,17 +535,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-05-23 11:23:19</t>
+          <t>2024-06-06 10:53:12</t>
         </is>
       </c>
     </row>
@@ -567,17 +567,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-05-27 14:33:02</t>
+          <t>2024-06-06 10:53:22</t>
         </is>
       </c>
     </row>
@@ -599,17 +599,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-05-27 15:18:01</t>
+          <t>2024-06-06 10:53:26</t>
         </is>
       </c>
     </row>
@@ -631,17 +631,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-05-30 09:58:57</t>
+          <t>2024-06-06 11:00:17</t>
         </is>
       </c>
     </row>
@@ -663,17 +663,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-05-30 10:01:41</t>
+          <t>2024-06-06 11:00:22</t>
         </is>
       </c>
     </row>
@@ -695,17 +695,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-05-30 10:41:41</t>
+          <t>2024-06-06 11:27:03</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024-05-30 11:47:35</t>
+          <t>2024-06-24 10:35:53</t>
         </is>
       </c>
     </row>
@@ -759,17 +759,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-06-03 10:36:50</t>
+          <t>2024-06-24 12:06:08</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024-06-03 10:55:48</t>
+          <t>2024-06-28 13:19:14</t>
         </is>
       </c>
     </row>
@@ -823,17 +823,49 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024-06-03 12:04:42</t>
+          <t>2024-06-28 13:19:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Резников Лев Георгиевич</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Административный директор</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-06-28 14:03:45</t>
         </is>
       </c>
     </row>
